--- a/biology/Botanique/Anaptychia_ciliaris/Anaptychia_ciliaris.xlsx
+++ b/biology/Botanique/Anaptychia_ciliaris/Anaptychia_ciliaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anaptychia ciliaris est une espèce de Lichen fruticuleux que l'on observe principalement en France, en Espagne, au Royaume-Uni et dans l'Europe centrale[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anaptychia ciliaris est une espèce de Lichen fruticuleux que l'on observe principalement en France, en Espagne, au Royaume-Uni et dans l'Europe centrale.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce lichen est de type fruticuleux, on le reconnaît principalement car il a une forme de petit buisson, il est accroché à son support par sa base et il est de couleur olivâtre, blanchâtre, grise ou encore verte. Ses thalles sont petits, ramifiés et aplatis.
-Il présente certaines structures particulières qui permettent de le différencier, telles que des cils (petits filaments observables en dessous du thalle ou sur les bords), et des petites apothécies situées sur toute la surface du thalle. A l'inverse on ne voit pas de soralies, de pseudocyphelles, d'isidies (organes de reproduction asexuée en forme de petits boutons), de verrues et de points clairs sur le thalle[2].
+Il présente certaines structures particulières qui permettent de le différencier, telles que des cils (petits filaments observables en dessous du thalle ou sur les bords), et des petites apothécies situées sur toute la surface du thalle. A l'inverse on ne voit pas de soralies, de pseudocyphelles, d'isidies (organes de reproduction asexuée en forme de petits boutons), de verrues et de points clairs sur le thalle.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présent principalement sur les écorces d'arbres matures en forêts claires, peu présent sur les pierres et les rochers[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Présent principalement sur les écorces d'arbres matures en forêts claires, peu présent sur les pierres et les rochers,.
 </t>
         </is>
       </c>
